--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12624" tabRatio="204" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12624" tabRatio="375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -18,117 +18,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>IP名称</t>
   </si>
   <si>
+    <t>Labubu</t>
+  </si>
+  <si>
+    <t>卓大王</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>系列名称</t>
+  </si>
+  <si>
+    <t>水果系列</t>
+  </si>
+  <si>
+    <t>星座系列</t>
+  </si>
+  <si>
+    <t>系列</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>品相</t>
+  </si>
+  <si>
+    <t>预售时间</t>
+  </si>
+  <si>
+    <t>兑换积分</t>
+  </si>
+  <si>
+    <t>图片地址</t>
+  </si>
+  <si>
+    <t>建议售价</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
     <t>IP对应ID</t>
   </si>
   <si>
-    <t>Labubu</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>卓大王</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>系列名称</t>
-  </si>
-  <si>
-    <t>系列对应ID</t>
-  </si>
-  <si>
-    <t>水果系列</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>星座系列</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>系列</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>品相</t>
-  </si>
-  <si>
-    <t>预售时间</t>
-  </si>
-  <si>
-    <t>兑换积分</t>
-  </si>
-  <si>
-    <t>图片地址</t>
-  </si>
-  <si>
-    <t>建议售价</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
     <t>Series对应ID</t>
   </si>
   <si>
+    <t>商品对应ID</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>全新未拆盒</t>
+  </si>
+  <si>
+    <t>现货</t>
+  </si>
+  <si>
+    <t>http://123.png</t>
+  </si>
+  <si>
+    <t>水瓶座</t>
+  </si>
+  <si>
+    <t>拆盒拆袋</t>
+  </si>
+  <si>
+    <t>http://456.png</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>奖项名称</t>
+  </si>
+  <si>
+    <t>奖品数量</t>
+  </si>
+  <si>
+    <t>设置范围</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>商品ID</t>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>全新未拆盒</t>
-  </si>
-  <si>
-    <t>现货</t>
-  </si>
-  <si>
-    <t>http://123.png</t>
-  </si>
-  <si>
-    <t>水瓶座</t>
-  </si>
-  <si>
-    <t>拆盒拆袋</t>
-  </si>
-  <si>
-    <t>http://456.png</t>
-  </si>
-  <si>
-    <t>商品编号</t>
-  </si>
-  <si>
-    <t>奖项名称</t>
-  </si>
-  <si>
-    <t>奖品数量</t>
-  </si>
-  <si>
-    <t>设置范围</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>A赏</t>
@@ -183,24 +171,30 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -656,54 +650,51 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,104 +704,108 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1194,40 +1189,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1243,63 +1228,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="3" max="4" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1318,117 +1284,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="14.1282051282051" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6282051282051" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="14.0961538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5961538461538" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6282051282051" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5961538461538" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.8782051282051" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8782051282051" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.8974358974359" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8974358974359" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>60</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>44854.4166666667</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
         <v>44854.4166666667</v>
       </c>
       <c r="F3" s="1">
         <v>300</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="1">
         <v>80</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>44859.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1447,48 +1413,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.87820512820513" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8782051282051" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="10.1987179487179" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8974358974359" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8974358974359" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1496,33 +1462,33 @@
         <v>1000100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1535,88 +1501,88 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
